--- a/ex_corr/tmpXLS/tmpТрошкина.xlsx
+++ b/ex_corr/tmpXLS/tmpТрошкина.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
-    <sheet name="export_230414_1901" sheetId="1" r:id="rId1"/>
+    <sheet name="export_230418_1007" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="238">
   <si>
     <t>Дата оформления  заявления-квитанции</t>
   </si>
@@ -429,6 +429,30 @@
     <t xml:space="preserve"> С-МА/28-03-2023/234073763</t>
   </si>
   <si>
+    <t xml:space="preserve"> БФ5М-60/60</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ТЕРМОКОНТ АНО НТП</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-013606</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-013606-2023-263</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80741-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.04.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/17-04-2023/239398498</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16.04.2024</t>
+  </si>
+  <si>
     <t xml:space="preserve"> БФ5М-45/45</t>
   </si>
   <si>
@@ -441,9 +465,6 @@
     <t xml:space="preserve"> 448-1000-013647-2023-223</t>
   </si>
   <si>
-    <t xml:space="preserve"> 80741-20</t>
-  </si>
-  <si>
     <t xml:space="preserve"> С-МА/29-03-2023/234256549</t>
   </si>
   <si>
@@ -627,9 +648,6 @@
     <t xml:space="preserve"> С-МА/12-04-2023/238242905</t>
   </si>
   <si>
-    <t xml:space="preserve"> ТЕРМОКОНТ АНО НТП</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1000-016559</t>
   </si>
   <si>
@@ -645,10 +663,61 @@
     <t xml:space="preserve"> С-МА/11-04-2023/238035971</t>
   </si>
   <si>
+    <t xml:space="preserve"> МЕТРОЛОГ БУ ВО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> №: С-МА/17-04-2023/239398109,  ГПС, РЭ/Сформировано   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-016947</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-016947-2023-9314</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 07.04.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/17-04-2023/239398109</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> №: С-МА/17-04-2023/239397935,  ГПС, РЭ/Сформировано   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-016947-2023-9310</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/17-04-2023/239397935</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P8100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> НМИЦК ИМ. АК. Е.И. ЧАЗОВА МИНЗДРАВА РОССИИ ФГБУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поляриметры автоматические цифровые</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-017660</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-017660-2023-4181020020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49554-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14.04.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/14-04-2023/239288680</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13.04.2024</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 45/0, 45/45</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Принято АРШИНом   </t>
   </si>
   <si>
     <t xml:space="preserve"> 1000-018287</t>
@@ -1489,7 +1558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN24"/>
+  <dimension ref="A1:AN28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2747,7 +2816,7 @@
         <v>92</v>
       </c>
       <c r="K11">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="L11" t="s">
         <v>44</v>
@@ -2762,7 +2831,7 @@
         <v>44</v>
       </c>
       <c r="P11">
-        <v>580756</v>
+        <v>580675</v>
       </c>
       <c r="Q11" t="s">
         <v>138</v>
@@ -2789,19 +2858,19 @@
         <v>140</v>
       </c>
       <c r="Y11" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="Z11" t="s">
         <v>53</v>
       </c>
       <c r="AA11">
-        <v>3663035765</v>
+        <v>9729271686</v>
       </c>
       <c r="AB11" t="s">
         <v>44</v>
       </c>
       <c r="AC11">
-        <v>3663035765</v>
+        <v>9729271686</v>
       </c>
       <c r="AD11" t="s">
         <v>44</v>
@@ -2816,19 +2885,19 @@
         <v>44</v>
       </c>
       <c r="AH11">
-        <v>580756</v>
+        <v>580675</v>
       </c>
       <c r="AI11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AJ11" t="s">
         <v>140</v>
       </c>
       <c r="AK11" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="AL11" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="AM11" t="s">
         <v>50</v>
@@ -2842,7 +2911,7 @@
         <v>45013</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -2851,10 +2920,10 @@
         <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G12" t="s">
         <v>70</v>
@@ -2866,10 +2935,10 @@
         <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="K12">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="L12" t="s">
         <v>44</v>
@@ -2884,10 +2953,10 @@
         <v>44</v>
       </c>
       <c r="P12">
-        <v>580988</v>
+        <v>580756</v>
       </c>
       <c r="Q12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="R12" t="s">
         <v>44</v>
@@ -2902,13 +2971,13 @@
         <v>95</v>
       </c>
       <c r="V12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="W12" t="s">
         <v>50</v>
       </c>
       <c r="X12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Y12" t="s">
         <v>98</v>
@@ -2917,13 +2986,13 @@
         <v>53</v>
       </c>
       <c r="AA12">
-        <v>7805666639</v>
+        <v>3663035765</v>
       </c>
       <c r="AB12" t="s">
         <v>44</v>
       </c>
       <c r="AC12">
-        <v>7805666639</v>
+        <v>3663035765</v>
       </c>
       <c r="AD12" t="s">
         <v>44</v>
@@ -2938,13 +3007,13 @@
         <v>44</v>
       </c>
       <c r="AH12">
-        <v>580988</v>
+        <v>580756</v>
       </c>
       <c r="AI12" t="s">
         <v>148</v>
       </c>
       <c r="AJ12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="s">
         <v>98</v>
@@ -2961,10 +3030,10 @@
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45014</v>
+        <v>45013</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -2973,13 +3042,13 @@
         <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
         <v>43</v>
@@ -2988,10 +3057,10 @@
         <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="K13">
-        <v>521</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
         <v>44</v>
@@ -3000,16 +3069,16 @@
         <v>44</v>
       </c>
       <c r="N13">
-        <v>20900</v>
+        <v>7350</v>
       </c>
       <c r="O13" t="s">
         <v>44</v>
       </c>
       <c r="P13">
-        <v>581335</v>
+        <v>580988</v>
       </c>
       <c r="Q13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="R13" t="s">
         <v>44</v>
@@ -3018,34 +3087,34 @@
         <v>44</v>
       </c>
       <c r="T13" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="U13" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="V13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="W13" t="s">
         <v>50</v>
       </c>
       <c r="X13" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="Y13" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="Z13" t="s">
         <v>53</v>
       </c>
       <c r="AA13">
-        <v>9731083834</v>
+        <v>7805666639</v>
       </c>
       <c r="AB13" t="s">
         <v>44</v>
       </c>
       <c r="AC13">
-        <v>9731083834</v>
+        <v>7805666639</v>
       </c>
       <c r="AD13" t="s">
         <v>44</v>
@@ -3054,25 +3123,25 @@
         <v>54</v>
       </c>
       <c r="AF13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH13">
+        <v>580988</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK13" t="s">
         <v>98</v>
       </c>
-      <c r="AG13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH13">
-        <v>581335</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>153</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>78</v>
-      </c>
       <c r="AL13" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM13" t="s">
         <v>50</v>
@@ -3095,13 +3164,13 @@
         <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H14" t="s">
         <v>43</v>
@@ -3113,7 +3182,7 @@
         <v>45</v>
       </c>
       <c r="K14">
-        <v>320</v>
+        <v>521</v>
       </c>
       <c r="L14" t="s">
         <v>44</v>
@@ -3122,16 +3191,16 @@
         <v>44</v>
       </c>
       <c r="N14">
-        <v>18600</v>
+        <v>20900</v>
       </c>
       <c r="O14" t="s">
         <v>44</v>
       </c>
       <c r="P14">
-        <v>581419</v>
+        <v>581335</v>
       </c>
       <c r="Q14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="R14" t="s">
         <v>44</v>
@@ -3146,7 +3215,7 @@
         <v>48</v>
       </c>
       <c r="V14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="W14" t="s">
         <v>50</v>
@@ -3155,19 +3224,19 @@
         <v>86</v>
       </c>
       <c r="Y14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Z14" t="s">
         <v>53</v>
       </c>
       <c r="AA14">
-        <v>3528000967</v>
+        <v>9731083834</v>
       </c>
       <c r="AB14" t="s">
         <v>44</v>
       </c>
       <c r="AC14">
-        <v>3528159852</v>
+        <v>9731083834</v>
       </c>
       <c r="AD14" t="s">
         <v>44</v>
@@ -3182,19 +3251,19 @@
         <v>44</v>
       </c>
       <c r="AH14">
-        <v>581419</v>
+        <v>581335</v>
       </c>
       <c r="AI14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AJ14" t="s">
         <v>86</v>
       </c>
       <c r="AK14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AL14" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AM14" t="s">
         <v>50</v>
@@ -3205,10 +3274,10 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45015</v>
-      </c>
-      <c r="B15">
-        <v>962</v>
+        <v>45014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
@@ -3217,13 +3286,13 @@
         <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="H15" t="s">
         <v>43</v>
@@ -3232,10 +3301,10 @@
         <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>2061</v>
+        <v>320</v>
       </c>
       <c r="L15" t="s">
         <v>44</v>
@@ -3244,16 +3313,16 @@
         <v>44</v>
       </c>
       <c r="N15">
-        <v>11800</v>
+        <v>18600</v>
       </c>
       <c r="O15" t="s">
         <v>44</v>
       </c>
       <c r="P15">
-        <v>581526</v>
+        <v>581419</v>
       </c>
       <c r="Q15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="R15" t="s">
         <v>44</v>
@@ -3262,34 +3331,34 @@
         <v>44</v>
       </c>
       <c r="T15" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="U15" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="V15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="W15" t="s">
         <v>50</v>
       </c>
       <c r="X15" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="Y15" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="Z15" t="s">
         <v>53</v>
       </c>
       <c r="AA15">
-        <v>7018002587</v>
+        <v>3528000967</v>
       </c>
       <c r="AB15" t="s">
         <v>44</v>
       </c>
       <c r="AC15">
-        <v>7018002587</v>
+        <v>3528159852</v>
       </c>
       <c r="AD15" t="s">
         <v>44</v>
@@ -3298,25 +3367,25 @@
         <v>54</v>
       </c>
       <c r="AF15" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="AG15" t="s">
         <v>44</v>
       </c>
       <c r="AH15">
-        <v>581526</v>
+        <v>581419</v>
       </c>
       <c r="AI15" t="s">
         <v>166</v>
       </c>
       <c r="AJ15" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="AK15" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="AL15" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="AM15" t="s">
         <v>50</v>
@@ -3329,8 +3398,8 @@
       <c r="A16" s="1">
         <v>45015</v>
       </c>
-      <c r="B16" t="s">
-        <v>90</v>
+      <c r="B16">
+        <v>962</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -3339,10 +3408,10 @@
         <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
         <v>70</v>
@@ -3354,10 +3423,10 @@
         <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="K16">
-        <v>219</v>
+        <v>2061</v>
       </c>
       <c r="L16" t="s">
         <v>44</v>
@@ -3366,13 +3435,13 @@
         <v>44</v>
       </c>
       <c r="N16">
-        <v>7350</v>
+        <v>11800</v>
       </c>
       <c r="O16" t="s">
         <v>44</v>
       </c>
       <c r="P16">
-        <v>581529</v>
+        <v>581526</v>
       </c>
       <c r="Q16" t="s">
         <v>168</v>
@@ -3384,10 +3453,10 @@
         <v>44</v>
       </c>
       <c r="T16" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="U16" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s">
         <v>169</v>
@@ -3396,10 +3465,10 @@
         <v>50</v>
       </c>
       <c r="X16" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="Y16" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="Z16" t="s">
         <v>53</v>
@@ -3420,25 +3489,25 @@
         <v>54</v>
       </c>
       <c r="AF16" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AG16" t="s">
         <v>44</v>
       </c>
       <c r="AH16">
-        <v>581529</v>
+        <v>581526</v>
       </c>
       <c r="AI16" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>170</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>97</v>
-      </c>
       <c r="AK16" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="AL16" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="AM16" t="s">
         <v>50</v>
@@ -3452,7 +3521,7 @@
         <v>45015</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
@@ -3461,10 +3530,10 @@
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
         <v>70</v>
@@ -3479,7 +3548,7 @@
         <v>92</v>
       </c>
       <c r="K17">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="L17" t="s">
         <v>44</v>
@@ -3494,10 +3563,10 @@
         <v>44</v>
       </c>
       <c r="P17">
-        <v>581728</v>
+        <v>581529</v>
       </c>
       <c r="Q17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="R17" t="s">
         <v>44</v>
@@ -3512,28 +3581,28 @@
         <v>95</v>
       </c>
       <c r="V17" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="W17" t="s">
         <v>50</v>
       </c>
       <c r="X17" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="Z17" t="s">
         <v>53</v>
       </c>
       <c r="AA17">
-        <v>3666127502</v>
+        <v>7018002587</v>
       </c>
       <c r="AB17" t="s">
         <v>44</v>
       </c>
       <c r="AC17">
-        <v>3666127502</v>
+        <v>7018002587</v>
       </c>
       <c r="AD17" t="s">
         <v>44</v>
@@ -3542,25 +3611,25 @@
         <v>54</v>
       </c>
       <c r="AF17" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AG17" t="s">
         <v>44</v>
       </c>
       <c r="AH17">
-        <v>581728</v>
+        <v>581529</v>
       </c>
       <c r="AI17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AJ17" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="AL17" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="AM17" t="s">
         <v>50</v>
@@ -3571,10 +3640,10 @@
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45019</v>
+        <v>45015</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
@@ -3583,10 +3652,10 @@
         <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G18" t="s">
         <v>70</v>
@@ -3601,7 +3670,7 @@
         <v>92</v>
       </c>
       <c r="K18">
-        <v>321</v>
+        <v>210</v>
       </c>
       <c r="L18" t="s">
         <v>44</v>
@@ -3616,10 +3685,10 @@
         <v>44</v>
       </c>
       <c r="P18">
-        <v>577310</v>
+        <v>581728</v>
       </c>
       <c r="Q18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R18" t="s">
         <v>44</v>
@@ -3634,7 +3703,7 @@
         <v>95</v>
       </c>
       <c r="V18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="W18" t="s">
         <v>50</v>
@@ -3643,19 +3712,19 @@
         <v>140</v>
       </c>
       <c r="Y18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="Z18" t="s">
-        <v>180</v>
+        <v>53</v>
       </c>
       <c r="AA18">
-        <v>7736315732</v>
+        <v>3666127502</v>
       </c>
       <c r="AB18" t="s">
         <v>44</v>
       </c>
       <c r="AC18">
-        <v>7736315732</v>
+        <v>3666127502</v>
       </c>
       <c r="AD18" t="s">
         <v>44</v>
@@ -3664,13 +3733,13 @@
         <v>54</v>
       </c>
       <c r="AF18" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="AG18" t="s">
         <v>44</v>
       </c>
       <c r="AH18">
-        <v>577310</v>
+        <v>581728</v>
       </c>
       <c r="AI18" t="s">
         <v>182</v>
@@ -3679,10 +3748,10 @@
         <v>140</v>
       </c>
       <c r="AK18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="AL18" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="AM18" t="s">
         <v>50</v>
@@ -3696,7 +3765,7 @@
         <v>45019</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
@@ -3705,10 +3774,10 @@
         <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G19" t="s">
         <v>70</v>
@@ -3723,7 +3792,7 @@
         <v>92</v>
       </c>
       <c r="K19">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="L19" t="s">
         <v>44</v>
@@ -3738,10 +3807,10 @@
         <v>44</v>
       </c>
       <c r="P19">
-        <v>582607</v>
+        <v>577310</v>
       </c>
       <c r="Q19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R19" t="s">
         <v>44</v>
@@ -3756,7 +3825,7 @@
         <v>95</v>
       </c>
       <c r="V19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="W19" t="s">
         <v>50</v>
@@ -3765,19 +3834,19 @@
         <v>140</v>
       </c>
       <c r="Y19" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="Z19" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="AA19">
-        <v>7733546058</v>
+        <v>7736315732</v>
       </c>
       <c r="AB19" t="s">
         <v>44</v>
       </c>
       <c r="AC19">
-        <v>7733546058</v>
+        <v>7736315732</v>
       </c>
       <c r="AD19" t="s">
         <v>44</v>
@@ -3786,25 +3855,25 @@
         <v>54</v>
       </c>
       <c r="AF19" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="AG19" t="s">
         <v>44</v>
       </c>
       <c r="AH19">
-        <v>582607</v>
+        <v>577310</v>
       </c>
       <c r="AI19" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AJ19" t="s">
         <v>140</v>
       </c>
       <c r="AK19" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="AL19" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="AM19" t="s">
         <v>50</v>
@@ -3815,10 +3884,10 @@
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45020</v>
+        <v>45019</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
@@ -3827,13 +3896,13 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G20" t="s">
-        <v>189</v>
+        <v>70</v>
       </c>
       <c r="H20" t="s">
         <v>43</v>
@@ -3842,10 +3911,10 @@
         <v>44</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="K20">
-        <v>7</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s">
         <v>44</v>
@@ -3854,16 +3923,16 @@
         <v>44</v>
       </c>
       <c r="N20">
-        <v>9300</v>
+        <v>7350</v>
       </c>
       <c r="O20" t="s">
         <v>44</v>
       </c>
       <c r="P20">
-        <v>582828</v>
+        <v>582607</v>
       </c>
       <c r="Q20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R20" t="s">
         <v>44</v>
@@ -3872,34 +3941,34 @@
         <v>44</v>
       </c>
       <c r="T20" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="U20" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="V20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="W20" t="s">
         <v>50</v>
       </c>
       <c r="X20" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="Y20" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="Z20" t="s">
         <v>53</v>
       </c>
       <c r="AA20">
-        <v>3125008748</v>
+        <v>7733546058</v>
       </c>
       <c r="AB20" t="s">
         <v>44</v>
       </c>
       <c r="AC20">
-        <v>3125008748</v>
+        <v>7733546058</v>
       </c>
       <c r="AD20" t="s">
         <v>44</v>
@@ -3908,25 +3977,25 @@
         <v>54</v>
       </c>
       <c r="AF20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH20">
+        <v>582607</v>
+      </c>
+      <c r="AI20" t="s">
         <v>193</v>
       </c>
-      <c r="AG20" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH20">
-        <v>582828</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>194</v>
-      </c>
       <c r="AJ20" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="AK20" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="AL20" t="s">
-        <v>195</v>
+        <v>89</v>
       </c>
       <c r="AM20" t="s">
         <v>50</v>
@@ -3937,10 +4006,10 @@
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45021</v>
+        <v>45020</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s">
         <v>38</v>
@@ -3949,13 +4018,13 @@
         <v>39</v>
       </c>
       <c r="E21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" t="s">
         <v>196</v>
-      </c>
-      <c r="F21" t="s">
-        <v>196</v>
-      </c>
-      <c r="G21" t="s">
-        <v>70</v>
       </c>
       <c r="H21" t="s">
         <v>43</v>
@@ -3964,10 +4033,10 @@
         <v>44</v>
       </c>
       <c r="J21" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>324</v>
+        <v>7</v>
       </c>
       <c r="L21" t="s">
         <v>44</v>
@@ -3976,13 +4045,13 @@
         <v>44</v>
       </c>
       <c r="N21">
-        <v>7436.67</v>
+        <v>9300</v>
       </c>
       <c r="O21" t="s">
         <v>44</v>
       </c>
       <c r="P21">
-        <v>583447</v>
+        <v>582828</v>
       </c>
       <c r="Q21" t="s">
         <v>197</v>
@@ -3994,34 +4063,34 @@
         <v>44</v>
       </c>
       <c r="T21" t="s">
+        <v>47</v>
+      </c>
+      <c r="U21" t="s">
+        <v>48</v>
+      </c>
+      <c r="V21" t="s">
         <v>198</v>
       </c>
-      <c r="U21" t="s">
+      <c r="W21" t="s">
+        <v>50</v>
+      </c>
+      <c r="X21" t="s">
         <v>199</v>
       </c>
-      <c r="V21" t="s">
-        <v>200</v>
-      </c>
-      <c r="W21" t="s">
-        <v>50</v>
-      </c>
-      <c r="X21" t="s">
-        <v>140</v>
-      </c>
       <c r="Y21" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="Z21" t="s">
         <v>53</v>
       </c>
       <c r="AA21">
-        <v>7718159209</v>
+        <v>3125008748</v>
       </c>
       <c r="AB21" t="s">
         <v>44</v>
       </c>
       <c r="AC21">
-        <v>7718159209</v>
+        <v>3125008748</v>
       </c>
       <c r="AD21" t="s">
         <v>44</v>
@@ -4030,25 +4099,25 @@
         <v>54</v>
       </c>
       <c r="AF21" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="AG21" t="s">
         <v>44</v>
       </c>
       <c r="AH21">
-        <v>583447</v>
+        <v>582828</v>
       </c>
       <c r="AI21" t="s">
         <v>201</v>
       </c>
       <c r="AJ21" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="AK21" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="AL21" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="AM21" t="s">
         <v>50</v>
@@ -4059,7 +4128,7 @@
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45023</v>
+        <v>45021</v>
       </c>
       <c r="B22" t="s">
         <v>90</v>
@@ -4071,10 +4140,10 @@
         <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G22" t="s">
         <v>70</v>
@@ -4089,7 +4158,7 @@
         <v>92</v>
       </c>
       <c r="K22">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="L22" t="s">
         <v>44</v>
@@ -4098,16 +4167,16 @@
         <v>44</v>
       </c>
       <c r="N22">
-        <v>7350</v>
+        <v>7436.67</v>
       </c>
       <c r="O22" t="s">
         <v>44</v>
       </c>
       <c r="P22">
-        <v>584254</v>
+        <v>583447</v>
       </c>
       <c r="Q22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="R22" t="s">
         <v>44</v>
@@ -4116,13 +4185,13 @@
         <v>44</v>
       </c>
       <c r="T22" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="U22" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="V22" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="W22" t="s">
         <v>50</v>
@@ -4131,19 +4200,19 @@
         <v>140</v>
       </c>
       <c r="Y22" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="Z22" t="s">
         <v>53</v>
       </c>
       <c r="AA22">
-        <v>9729271686</v>
+        <v>7718159209</v>
       </c>
       <c r="AB22" t="s">
         <v>44</v>
       </c>
       <c r="AC22">
-        <v>9729271686</v>
+        <v>7718159209</v>
       </c>
       <c r="AD22" t="s">
         <v>44</v>
@@ -4152,25 +4221,25 @@
         <v>54</v>
       </c>
       <c r="AF22" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AG22" t="s">
         <v>44</v>
       </c>
       <c r="AH22">
-        <v>584254</v>
+        <v>583447</v>
       </c>
       <c r="AI22" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AJ22" t="s">
         <v>140</v>
       </c>
       <c r="AK22" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="AL22" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="AM22" t="s">
         <v>50</v>
@@ -4193,10 +4262,10 @@
         <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="G23" t="s">
         <v>70</v>
@@ -4211,7 +4280,7 @@
         <v>92</v>
       </c>
       <c r="K23">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L23" t="s">
         <v>44</v>
@@ -4229,7 +4298,7 @@
         <v>584254</v>
       </c>
       <c r="Q23" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="R23" t="s">
         <v>44</v>
@@ -4244,7 +4313,7 @@
         <v>95</v>
       </c>
       <c r="V23" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="W23" t="s">
         <v>50</v>
@@ -4253,7 +4322,7 @@
         <v>140</v>
       </c>
       <c r="Y23" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Z23" t="s">
         <v>53</v>
@@ -4283,16 +4352,16 @@
         <v>584254</v>
       </c>
       <c r="AI23" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AJ23" t="s">
         <v>140</v>
       </c>
       <c r="AK23" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AL23" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AM23" t="s">
         <v>50</v>
@@ -4303,10 +4372,10 @@
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45028</v>
+        <v>45023</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
@@ -4315,13 +4384,13 @@
         <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F24" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G24" t="s">
-        <v>209</v>
+        <v>70</v>
       </c>
       <c r="H24" t="s">
         <v>43</v>
@@ -4330,10 +4399,10 @@
         <v>44</v>
       </c>
       <c r="J24" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="K24">
-        <v>131</v>
+        <v>333</v>
       </c>
       <c r="L24" t="s">
         <v>44</v>
@@ -4348,10 +4417,10 @@
         <v>44</v>
       </c>
       <c r="P24">
-        <v>585664</v>
+        <v>584254</v>
       </c>
       <c r="Q24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R24" t="s">
         <v>44</v>
@@ -4366,28 +4435,28 @@
         <v>95</v>
       </c>
       <c r="V24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="W24" t="s">
         <v>50</v>
       </c>
       <c r="X24" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Y24" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="Z24" t="s">
         <v>53</v>
       </c>
       <c r="AA24">
-        <v>7805666639</v>
+        <v>9729271686</v>
       </c>
       <c r="AB24" t="s">
         <v>44</v>
       </c>
       <c r="AC24">
-        <v>7805666639</v>
+        <v>9729271686</v>
       </c>
       <c r="AD24" t="s">
         <v>44</v>
@@ -4396,30 +4465,518 @@
         <v>54</v>
       </c>
       <c r="AF24" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="AG24" t="s">
         <v>44</v>
       </c>
       <c r="AH24">
-        <v>585664</v>
+        <v>584254</v>
       </c>
       <c r="AI24" t="s">
         <v>213</v>
       </c>
       <c r="AJ24" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AK24" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="AL24" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45023</v>
+      </c>
+      <c r="B25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
         <v>214</v>
       </c>
-      <c r="AM24" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN24" t="s">
+      <c r="F25" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" t="s">
+        <v>215</v>
+      </c>
+      <c r="H25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25">
+        <v>9314</v>
+      </c>
+      <c r="L25" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25">
+        <v>37800</v>
+      </c>
+      <c r="O25" t="s">
+        <v>44</v>
+      </c>
+      <c r="P25">
+        <v>584266</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>216</v>
+      </c>
+      <c r="R25" t="s">
+        <v>44</v>
+      </c>
+      <c r="S25" t="s">
+        <v>44</v>
+      </c>
+      <c r="T25" t="s">
+        <v>47</v>
+      </c>
+      <c r="U25" t="s">
+        <v>48</v>
+      </c>
+      <c r="V25" t="s">
+        <v>217</v>
+      </c>
+      <c r="W25" t="s">
+        <v>50</v>
+      </c>
+      <c r="X25" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA25">
+        <v>3662108072</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC25">
+        <v>3662108072</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH25">
+        <v>584266</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>214</v>
+      </c>
+      <c r="F26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K26">
+        <v>9310</v>
+      </c>
+      <c r="L26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26">
+        <v>16200</v>
+      </c>
+      <c r="O26" t="s">
+        <v>44</v>
+      </c>
+      <c r="P26">
+        <v>584266</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>216</v>
+      </c>
+      <c r="R26" t="s">
+        <v>44</v>
+      </c>
+      <c r="S26" t="s">
+        <v>44</v>
+      </c>
+      <c r="T26" t="s">
+        <v>47</v>
+      </c>
+      <c r="U26" t="s">
+        <v>48</v>
+      </c>
+      <c r="V26" t="s">
+        <v>221</v>
+      </c>
+      <c r="W26" t="s">
+        <v>50</v>
+      </c>
+      <c r="X26" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA26">
+        <v>3662108072</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC26">
+        <v>3662108072</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH26">
+        <v>584266</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45026</v>
+      </c>
+      <c r="B27" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>224</v>
+      </c>
+      <c r="F27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" t="s">
+        <v>225</v>
+      </c>
+      <c r="K27">
+        <v>4181020020</v>
+      </c>
+      <c r="L27" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27">
+        <v>6750</v>
+      </c>
+      <c r="O27" t="s">
+        <v>44</v>
+      </c>
+      <c r="P27">
+        <v>585021</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>226</v>
+      </c>
+      <c r="R27" t="s">
+        <v>44</v>
+      </c>
+      <c r="S27" t="s">
+        <v>44</v>
+      </c>
+      <c r="T27" t="s">
+        <v>205</v>
+      </c>
+      <c r="U27" t="s">
+        <v>206</v>
+      </c>
+      <c r="V27" t="s">
+        <v>227</v>
+      </c>
+      <c r="W27" t="s">
+        <v>50</v>
+      </c>
+      <c r="X27" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA27">
+        <v>7731243467</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC27">
+        <v>7731243467</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH27">
+        <v>585021</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>228</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" t="s">
+        <v>151</v>
+      </c>
+      <c r="K28">
+        <v>131</v>
+      </c>
+      <c r="L28" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28">
+        <v>7350</v>
+      </c>
+      <c r="O28" t="s">
+        <v>44</v>
+      </c>
+      <c r="P28">
+        <v>585664</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>233</v>
+      </c>
+      <c r="R28" t="s">
+        <v>44</v>
+      </c>
+      <c r="S28" t="s">
+        <v>44</v>
+      </c>
+      <c r="T28" t="s">
+        <v>94</v>
+      </c>
+      <c r="U28" t="s">
+        <v>95</v>
+      </c>
+      <c r="V28" t="s">
+        <v>234</v>
+      </c>
+      <c r="W28" t="s">
+        <v>50</v>
+      </c>
+      <c r="X28" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA28">
+        <v>7805666639</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC28">
+        <v>7805666639</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH28">
+        <v>585664</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN28" t="s">
         <v>58</v>
       </c>
     </row>
